--- a/Meetings/Create Event Meeting Setup/Main.rvl.xlsx
+++ b/Meetings/Create Event Meeting Setup/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="157">
   <si>
     <t>Flow</t>
   </si>
@@ -433,6 +433,57 @@
   </si>
   <si>
     <t>ux_EditDate</t>
+  </si>
+  <si>
+    <t>***Test creates the Event Setup "TUXr Event."</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Event Setup to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Event Setup is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Event Setup.</t>
+  </si>
+  <si>
+    <t>***Test creates the Event Meeting Setup "TUXr Meeting."</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Event Meeting Setup is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Event Meeting Setup.</t>
+  </si>
+  <si>
+    <t>Check if Event Meeting Setup exists before creating new setup</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>UX_Grid</t>
+  </si>
+  <si>
+    <t>*******TUXr Event must already be created before running this test.</t>
+  </si>
+  <si>
+    <t>TUXr Meeting2</t>
+  </si>
+  <si>
+    <t>TUXrMeeting2</t>
+  </si>
+  <si>
+    <t>Meeting not found. Create new meeting setup for testing.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Event Meeting Setup to see if it already exists.</t>
   </si>
 </sst>
 </file>
@@ -453,7 +504,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="275">
+  <borders count="285">
     <border>
       <left/>
       <right/>
@@ -735,11 +786,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1015,6 +1076,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="272" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="273" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="274" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="275" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="276" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="277" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="278" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="279" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="280" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="281" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="282" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="283" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="284" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H104"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -1097,487 +1168,463 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="210"/>
+      <c r="A6" s="283"/>
     </row>
     <row r="7">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="282"/>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="210"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="208"/>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="10">
+      <c r="A10" s="208"/>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="207"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="206" t="s">
+    <row r="11">
+      <c r="A11" s="279"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="278"/>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="277"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="276"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="275"/>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="284"/>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="207"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="205"/>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="19">
+      <c r="A19" s="205"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E19" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="204"/>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="204"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D20" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E20" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="203"/>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="21">
+      <c r="A21" s="203"/>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E21" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="202"/>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="22">
+      <c r="A22" s="202"/>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D22" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E22" t="s">
         <v>31</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="201"/>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="23">
+      <c r="A23" s="201"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D23" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E23" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="200"/>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="24">
+      <c r="A24" s="200"/>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D24" t="s">
         <v>41</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E24" t="s">
         <v>42</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F24" t="s">
         <v>43</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="198"/>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="25">
+      <c r="A25" s="198"/>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" t="s">
         <v>129</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E25" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
         <v>82</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="265"/>
-      <c r="B18" t="s">
+    <row r="26">
+      <c r="A26" s="265"/>
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E26" t="s">
         <v>53</v>
       </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="266"/>
-      <c r="B19" t="s">
+    <row r="27">
+      <c r="A27" s="266"/>
+      <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E27" t="s">
         <v>126</v>
       </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="196" t="s">
+    <row r="28">
+      <c r="A28" s="196" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E28" t="s">
         <v>56</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F28" t="s">
         <v>18</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="217" t="s">
+    <row r="29">
+      <c r="A29" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E29" t="s">
         <v>7</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F29" t="s">
         <v>7</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G29" t="s">
         <v>7</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="193"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="192" t="s">
+    <row r="30">
+      <c r="A30" s="193"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="191"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="259" t="s">
+    <row r="32">
+      <c r="A32" s="191"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="258"/>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="34">
+      <c r="A34" s="258"/>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D34" t="s">
         <v>26</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E34" t="s">
         <v>27</v>
       </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="257"/>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="256"/>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="262"/>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="255"/>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="254"/>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="253"/>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="252"/>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="251"/>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>39</v>
-      </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="250"/>
+      <c r="A35" s="257"/>
       <c r="B35" t="s">
         <v>3</v>
       </c>
@@ -1585,35 +1632,41 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="249"/>
+      <c r="A36" s="256"/>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="248"/>
+      <c r="A37" s="262"/>
       <c r="B37" t="s">
         <v>3</v>
       </c>
@@ -1621,35 +1674,41 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="247"/>
+      <c r="A38" s="255"/>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="246"/>
+      <c r="A39" s="254"/>
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -1657,7 +1716,7 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
         <v>66</v>
@@ -1666,11 +1725,11 @@
         <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="273"/>
+      <c r="A40" s="253"/>
       <c r="B40" t="s">
         <v>11</v>
       </c>
@@ -1681,11 +1740,11 @@
         <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="244"/>
+      <c r="A41" s="252"/>
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -1702,11 +1761,11 @@
         <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="243"/>
+      <c r="A42" s="251"/>
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1717,11 +1776,11 @@
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="242"/>
+      <c r="A43" s="250"/>
       <c r="B43" t="s">
         <v>3</v>
       </c>
@@ -1729,7 +1788,7 @@
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="E43" t="s">
         <v>66</v>
@@ -1738,11 +1797,11 @@
         <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="274"/>
+      <c r="A44" s="249"/>
       <c r="B44" t="s">
         <v>11</v>
       </c>
@@ -1753,11 +1812,11 @@
         <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="240"/>
+      <c r="A45" s="248"/>
       <c r="B45" t="s">
         <v>3</v>
       </c>
@@ -1765,7 +1824,7 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
         <v>66</v>
@@ -1774,11 +1833,11 @@
         <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="239"/>
+      <c r="A46" s="247"/>
       <c r="B46" t="s">
         <v>11</v>
       </c>
@@ -1789,11 +1848,11 @@
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="238"/>
+      <c r="A47" s="246"/>
       <c r="B47" t="s">
         <v>3</v>
       </c>
@@ -1801,119 +1860,107 @@
         <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="237"/>
+      <c r="A48" s="273"/>
       <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="244"/>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
         <v>29</v>
       </c>
-      <c r="D48" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" t="s">
         <v>66</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>21</v>
       </c>
-      <c r="G48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="236"/>
-      <c r="B49" t="s">
+      <c r="G49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="243"/>
+      <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>39</v>
       </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="235"/>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="242"/>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
         <v>29</v>
       </c>
-      <c r="D50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="234"/>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="269"/>
+      <c r="A52" s="274"/>
       <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="267"/>
+      <c r="A53" s="240"/>
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1921,7 +1968,7 @@
         <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
         <v>66</v>
@@ -1930,11 +1977,11 @@
         <v>21</v>
       </c>
       <c r="G53" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="268"/>
+      <c r="A54" s="239"/>
       <c r="B54" t="s">
         <v>11</v>
       </c>
@@ -1945,11 +1992,11 @@
         <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="233"/>
+      <c r="A55" s="238"/>
       <c r="B55" t="s">
         <v>3</v>
       </c>
@@ -1957,92 +2004,98 @@
         <v>29</v>
       </c>
       <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="237"/>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s">
         <v>91</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>66</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>21</v>
       </c>
-      <c r="G55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="232"/>
-      <c r="B56" t="s">
+      <c r="G56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="236"/>
+      <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>39</v>
       </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="231"/>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="235"/>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
         <v>29</v>
       </c>
-      <c r="D57" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="230"/>
-      <c r="B58" t="s">
-        <v>11</v>
+      <c r="D58" t="s">
+        <v>109</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="229"/>
+      <c r="A59" s="234"/>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="228"/>
+      <c r="A60" s="269"/>
       <c r="B60" t="s">
         <v>3</v>
       </c>
@@ -2050,60 +2103,79 @@
         <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="227"/>
+      <c r="A61" s="267"/>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="226" t="s">
-        <v>23</v>
-      </c>
+      <c r="A62" s="268"/>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="225"/>
+      <c r="A63" s="233"/>
       <c r="B63" t="s">
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G63" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="224"/>
+      <c r="A64" s="232"/>
       <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
         <v>39</v>
@@ -2112,62 +2184,68 @@
         <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="223"/>
+      <c r="A65" s="231"/>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="222"/>
+      <c r="A66" s="230"/>
       <c r="B66" t="s">
         <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="264"/>
+      <c r="A67" s="229"/>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" t="s">
+        <v>133</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F67" t="s">
         <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="221"/>
+      <c r="A68" s="228"/>
       <c r="B68" t="s">
         <v>3</v>
       </c>
@@ -2175,266 +2253,361 @@
         <v>29</v>
       </c>
       <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="227"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="226" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="225"/>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="224"/>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="223"/>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="222"/>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="264"/>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>126</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="221"/>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" t="s">
         <v>76</v>
       </c>
-      <c r="E68" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="270"/>
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" t="s">
-        <v>78</v>
-      </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="271"/>
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="E76" t="s">
         <v>79</v>
       </c>
-      <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="169"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="168" t="s">
+    <row r="77">
+      <c r="A77" s="169"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="168" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="167"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="166"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="165"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="164"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="163"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="162"/>
-    </row>
     <row r="79">
-      <c r="A79" s="161"/>
+      <c r="A79" s="167"/>
     </row>
     <row r="80">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="A80" s="166"/>
     </row>
     <row r="81">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="24"/>
+      <c r="A81" s="165"/>
     </row>
     <row r="82">
-      <c r="A82" s="25"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="32"/>
+      <c r="A82" s="164"/>
     </row>
     <row r="83">
-      <c r="A83" s="33"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="40"/>
+      <c r="A83" s="163"/>
     </row>
     <row r="84">
-      <c r="A84" s="41"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="A84" s="162"/>
     </row>
     <row r="85">
-      <c r="A85" s="49"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="53"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="56"/>
+      <c r="A85" s="161"/>
     </row>
     <row r="86">
-      <c r="A86" s="57"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="64"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="16"/>
     </row>
     <row r="87">
-      <c r="A87" s="65"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="72"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="24"/>
     </row>
     <row r="88">
-      <c r="A88" s="73"/>
-      <c r="B88" s="74"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="79"/>
-      <c r="H88" s="80"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="32"/>
     </row>
     <row r="89">
-      <c r="A89" s="81"/>
-      <c r="B89" s="82"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="86"/>
-      <c r="G89" s="87"/>
-      <c r="H89" s="88"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="40"/>
     </row>
     <row r="90">
-      <c r="A90" s="89"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="92"/>
-      <c r="E90" s="93"/>
-      <c r="F90" s="94"/>
-      <c r="G90" s="95"/>
-      <c r="H90" s="96"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="48"/>
     </row>
     <row r="91">
-      <c r="A91" s="97"/>
-      <c r="B91" s="98"/>
-      <c r="C91" s="99"/>
-      <c r="D91" s="100"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="102"/>
-      <c r="G91" s="103"/>
-      <c r="H91" s="104"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="56"/>
     </row>
     <row r="92">
-      <c r="A92" s="105"/>
-      <c r="B92" s="106"/>
-      <c r="C92" s="107"/>
-      <c r="D92" s="108"/>
-      <c r="E92" s="109"/>
-      <c r="F92" s="110"/>
-      <c r="G92" s="111"/>
-      <c r="H92" s="112"/>
+      <c r="A92" s="57"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="63"/>
+      <c r="H92" s="64"/>
     </row>
     <row r="93">
-      <c r="A93" s="113"/>
-      <c r="B93" s="114"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="116"/>
-      <c r="E93" s="117"/>
-      <c r="F93" s="118"/>
-      <c r="G93" s="119"/>
-      <c r="H93" s="120"/>
+      <c r="A93" s="65"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="72"/>
     </row>
     <row r="94">
-      <c r="A94" s="121"/>
-      <c r="B94" s="122"/>
-      <c r="C94" s="123"/>
-      <c r="D94" s="124"/>
-      <c r="E94" s="125"/>
-      <c r="F94" s="126"/>
-      <c r="G94" s="127"/>
-      <c r="H94" s="128"/>
+      <c r="A94" s="73"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="80"/>
     </row>
     <row r="95">
-      <c r="A95" s="129"/>
-      <c r="B95" s="130"/>
-      <c r="C95" s="131"/>
-      <c r="D95" s="132"/>
-      <c r="E95" s="133"/>
-      <c r="F95" s="134"/>
-      <c r="G95" s="135"/>
-      <c r="H95" s="136"/>
+      <c r="A95" s="81"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="86"/>
+      <c r="G95" s="87"/>
+      <c r="H95" s="88"/>
     </row>
     <row r="96">
-      <c r="A96" s="137"/>
-      <c r="B96" s="138"/>
-      <c r="C96" s="139"/>
-      <c r="D96" s="140"/>
-      <c r="E96" s="141"/>
-      <c r="F96" s="142"/>
-      <c r="G96" s="143"/>
-      <c r="H96" s="144"/>
+      <c r="A96" s="89"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="94"/>
+      <c r="G96" s="95"/>
+      <c r="H96" s="96"/>
     </row>
     <row r="97">
-      <c r="A97" s="145"/>
-      <c r="B97" s="146"/>
-      <c r="C97" s="147"/>
-      <c r="D97" s="148"/>
-      <c r="E97" s="149"/>
-      <c r="F97" s="150"/>
-      <c r="G97" s="151"/>
-      <c r="H97" s="152"/>
+      <c r="A97" s="97"/>
+      <c r="B97" s="98"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="100"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="102"/>
+      <c r="G97" s="103"/>
+      <c r="H97" s="104"/>
     </row>
     <row r="98">
-      <c r="A98" s="153"/>
-      <c r="B98" s="154"/>
-      <c r="C98" s="155"/>
-      <c r="D98" s="156"/>
-      <c r="E98" s="157"/>
-      <c r="F98" s="158"/>
-      <c r="G98" s="159"/>
-      <c r="H98" s="160"/>
+      <c r="A98" s="105"/>
+      <c r="B98" s="106"/>
+      <c r="C98" s="107"/>
+      <c r="D98" s="108"/>
+      <c r="E98" s="109"/>
+      <c r="F98" s="110"/>
+      <c r="G98" s="111"/>
+      <c r="H98" s="112"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="113"/>
+      <c r="B99" s="114"/>
+      <c r="C99" s="115"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="118"/>
+      <c r="G99" s="119"/>
+      <c r="H99" s="120"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="121"/>
+      <c r="B100" s="122"/>
+      <c r="C100" s="123"/>
+      <c r="D100" s="124"/>
+      <c r="E100" s="125"/>
+      <c r="F100" s="126"/>
+      <c r="G100" s="127"/>
+      <c r="H100" s="128"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="129"/>
+      <c r="B101" s="130"/>
+      <c r="C101" s="131"/>
+      <c r="D101" s="132"/>
+      <c r="E101" s="133"/>
+      <c r="F101" s="134"/>
+      <c r="G101" s="135"/>
+      <c r="H101" s="136"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="137"/>
+      <c r="B102" s="138"/>
+      <c r="C102" s="139"/>
+      <c r="D102" s="140"/>
+      <c r="E102" s="141"/>
+      <c r="F102" s="142"/>
+      <c r="G102" s="143"/>
+      <c r="H102" s="144"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="145"/>
+      <c r="B103" s="146"/>
+      <c r="C103" s="147"/>
+      <c r="D103" s="148"/>
+      <c r="E103" s="149"/>
+      <c r="F103" s="150"/>
+      <c r="G103" s="151"/>
+      <c r="H103" s="152"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="153"/>
+      <c r="B104" s="154"/>
+      <c r="C104" s="155"/>
+      <c r="D104" s="156"/>
+      <c r="E104" s="157"/>
+      <c r="F104" s="158"/>
+      <c r="G104" s="159"/>
+      <c r="H104" s="160"/>
     </row>
   </sheetData>
 </worksheet>
